--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356B75BF-337A-4F5B-BFED-EE448CFE3236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5C88E7-DD19-431A-95AB-90A422B1A9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -500,10 +500,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,12 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,7 +847,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,14 +936,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -952,14 +952,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -968,14 +968,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -984,14 +984,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1035,10 +1035,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,14 +1050,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1144,14 +1144,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1160,14 +1160,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1185,10 +1185,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1304,14 +1304,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1355,10 +1355,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1422,14 +1422,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1438,14 +1438,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1480,14 +1480,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1531,10 +1531,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,14 +1650,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1701,10 +1701,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1716,14 +1716,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1787,14 +1787,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1806,11 +1806,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1857,7 +1857,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -1999,14 +1999,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2053,7 +2053,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="23"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2120,11 +2120,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2136,11 +2136,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="22"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2152,11 +2152,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="22"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2203,7 +2203,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="23"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2244,10 +2244,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2262,15 +2262,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="23"/>
+      <c r="I67" s="22"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2288,9 +2288,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="22"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2302,11 +2302,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="22"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2318,7 +2318,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="23"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2392,11 +2392,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="22"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2408,8 +2408,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2448,11 +2448,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="22"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2464,11 +2464,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="22"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2480,11 +2480,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2531,7 +2531,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="23"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2622,11 +2622,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2667,8 +2667,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2686,15 +2686,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="23"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2706,11 +2706,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="22"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2722,15 +2722,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="23"/>
+      <c r="I89" s="22"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2742,7 +2742,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2767,10 +2767,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="22"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2785,11 +2785,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="22"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2801,11 +2801,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="22"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2817,11 +2817,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="22"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2833,12 +2833,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="23"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2853,11 +2853,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="22"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2869,11 +2869,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="22"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2885,11 +2885,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="22"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2901,9 +2901,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="22"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2930,18 +2930,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="22"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="22"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2963,7 +2963,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2979,7 +2979,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -2995,7 +2995,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3011,7 +3011,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3027,7 +3027,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3043,7 +3043,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3080,28 +3080,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3235,10 +3235,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="22"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3247,13 +3247,27 @@
       <c r="C119" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="D119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="3"/>
@@ -6524,6 +6538,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="G64:H64"/>
@@ -6540,59 +6607,6 @@
     <mergeCell ref="B101:I101"/>
     <mergeCell ref="D96:I96"/>
     <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D62:I62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5C88E7-DD19-431A-95AB-90A422B1A9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7564C0-F175-4963-8125-5E1F02FD2A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -500,16 +500,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -529,6 +523,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,7 +847,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,14 +936,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -952,14 +952,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -968,14 +968,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -984,14 +984,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1035,10 +1035,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,14 +1050,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1144,14 +1144,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1160,14 +1160,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1185,10 +1185,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1304,14 +1304,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1355,10 +1355,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1422,14 +1422,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1438,14 +1438,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1480,14 +1480,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1531,10 +1531,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="25"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,14 +1650,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1701,10 +1701,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="25"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1716,14 +1716,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1787,14 +1787,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1806,11 +1806,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1857,7 +1857,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="22"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -1999,14 +1999,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2053,7 +2053,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="22"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2120,11 +2120,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2136,11 +2136,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2152,11 +2152,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2203,7 +2203,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="22"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2244,10 +2244,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2262,15 +2262,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="22"/>
+      <c r="I67" s="23"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2288,9 +2288,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2302,11 +2302,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2318,7 +2318,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="22"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2392,11 +2392,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2408,8 +2408,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2448,11 +2448,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2464,11 +2464,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2480,11 +2480,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2531,7 +2531,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="22"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="22"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2622,11 +2622,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2667,8 +2667,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2686,15 +2686,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="22"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="23"/>
-      <c r="I87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2706,11 +2706,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2722,15 +2722,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="22"/>
+      <c r="I89" s="23"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2742,7 +2742,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="22"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2767,10 +2767,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2785,11 +2785,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2801,11 +2801,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2817,11 +2817,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2833,12 +2833,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="23"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="23"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="22"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2853,11 +2853,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2869,11 +2869,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2885,11 +2885,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2901,9 +2901,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2930,18 +2930,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="23"/>
-      <c r="I100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2963,7 +2963,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="22"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2979,7 +2979,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="22"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -2995,7 +2995,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="22"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3011,7 +3011,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="22"/>
+      <c r="E106" s="23"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3027,7 +3027,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="22"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3043,7 +3043,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="22"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3080,28 +3080,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3235,10 +3235,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3270,15 +3270,25 @@
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="B120" s="4">
+        <v>45850</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
@@ -6537,7 +6547,61 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="70">
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
     <mergeCell ref="F118:J118"/>
     <mergeCell ref="B112:J113"/>
     <mergeCell ref="D33:I33"/>
@@ -6554,59 +6618,6 @@
     <mergeCell ref="D69:I69"/>
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="H89:I89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7564C0-F175-4963-8125-5E1F02FD2A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91B10C3-34F9-4404-8337-ECD312A5FC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>SD_Sir</t>
+  </si>
+  <si>
+    <t>Holiday</t>
   </si>
 </sst>
 </file>
@@ -506,6 +509,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -952,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -968,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -984,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1035,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1144,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1160,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1185,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1304,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1355,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1422,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1438,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1480,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1531,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1701,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1716,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1787,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3080,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3291,15 +3294,21 @@
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="B121" s="4">
+        <v>45851</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
@@ -6547,7 +6556,62 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="71">
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="D67:F67"/>
@@ -6564,60 +6628,6 @@
     <mergeCell ref="G100:I100"/>
     <mergeCell ref="B101:I101"/>
     <mergeCell ref="D96:I96"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D62:I62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91B10C3-34F9-4404-8337-ECD312A5FC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7456A5-D899-471E-A324-9DFC5DD7DE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -509,12 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +526,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="25"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="25"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3311,15 +3311,33 @@
       <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="B122" s="4">
+        <v>45852</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
@@ -6557,6 +6575,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
     <mergeCell ref="B112:J113"/>
@@ -6573,61 +6646,6 @@
     <mergeCell ref="D84:I84"/>
     <mergeCell ref="D69:I69"/>
     <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D96:I96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7456A5-D899-471E-A324-9DFC5DD7DE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E439438-030D-42C9-8707-E2F40049540A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -509,6 +509,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3340,8 +3340,12 @@
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="B123" s="4">
+        <v>45853</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -6575,6 +6579,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="D67:F67"/>
@@ -6591,61 +6650,6 @@
     <mergeCell ref="G100:I100"/>
     <mergeCell ref="B101:I101"/>
     <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D74:F74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E439438-030D-42C9-8707-E2F40049540A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E190684-B23F-4A45-8F82-E8B98E3F1321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -509,12 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +526,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="25"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="25"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3355,15 +3355,27 @@
       <c r="J123" s="1"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="B124" s="4">
+        <v>45854</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
@@ -6578,7 +6590,63 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="72">
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
     <mergeCell ref="B112:J113"/>
@@ -6595,61 +6663,6 @@
     <mergeCell ref="D84:I84"/>
     <mergeCell ref="D69:I69"/>
     <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D96:I96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E190684-B23F-4A45-8F82-E8B98E3F1321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F9035-FEC8-4711-9E8F-491472A0CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -509,6 +509,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3346,13 +3346,21 @@
       <c r="C123" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="D123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -6590,7 +6598,64 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="73">
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="G124:J124"/>
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G81:H81"/>
@@ -6607,62 +6672,6 @@
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="G100:I100"/>
     <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D74:F74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F9035-FEC8-4711-9E8F-491472A0CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF57F0-6449-4FF3-8891-80451C4D2761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -509,12 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +526,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="25"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="25"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3386,7 +3386,9 @@
       <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B125" s="3"/>
+      <c r="B125" s="4">
+        <v>45855</v>
+      </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6599,6 +6601,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D96:I96"/>
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
@@ -6615,63 +6674,6 @@
     <mergeCell ref="D55:I55"/>
     <mergeCell ref="D84:I84"/>
     <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF57F0-6449-4FF3-8891-80451C4D2761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F467DE5D-2108-4BB4-9FD9-94B892446E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -509,6 +509,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3389,14 +3389,22 @@
       <c r="B125" s="4">
         <v>45855</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="C125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
@@ -6600,7 +6608,65 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="74">
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
     <mergeCell ref="G124:J124"/>
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G81:H81"/>
@@ -6617,63 +6683,6 @@
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="G100:I100"/>
     <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F467DE5D-2108-4BB4-9FD9-94B892446E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F262025-DB83-4157-A76C-B72B79784EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -509,12 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +526,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3407,8 +3407,12 @@
       <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="B126" s="4">
+        <v>45856</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -6609,48 +6613,17 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="D78:I78"/>
@@ -6667,22 +6640,53 @@
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="D61:I61"/>
     <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="B112:J113"/>
     <mergeCell ref="G124:J124"/>
     <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F262025-DB83-4157-A76C-B72B79784EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FFB268-C2EC-4185-87DF-1A6AE2792CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -503,11 +503,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1809,11 +1809,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1860,7 +1860,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2002,14 +2002,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2056,7 +2056,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="23"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2123,11 +2123,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2139,11 +2139,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="22"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2155,11 +2155,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="22"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2206,7 +2206,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="23"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2247,10 +2247,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2265,15 +2265,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="23"/>
+      <c r="I67" s="22"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2291,9 +2291,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="22"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2305,11 +2305,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="22"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2321,7 +2321,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="23"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2395,11 +2395,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="22"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2411,8 +2411,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2451,11 +2451,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="22"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2467,11 +2467,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="22"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2483,11 +2483,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2534,7 +2534,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="23"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2625,11 +2625,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2670,8 +2670,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="22"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2689,15 +2689,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="23"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2709,11 +2709,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="22"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2725,15 +2725,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="23"/>
+      <c r="I89" s="22"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2745,7 +2745,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2770,10 +2770,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="22"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2788,11 +2788,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="22"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2804,11 +2804,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="22"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2820,11 +2820,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="22"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2836,12 +2836,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="23"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2856,11 +2856,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="22"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2872,11 +2872,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="22"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2888,11 +2888,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="22"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2904,9 +2904,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="22"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2933,18 +2933,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="22"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="22"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2966,7 +2966,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2982,7 +2982,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -2998,7 +2998,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3014,7 +3014,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3030,7 +3030,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3046,7 +3046,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3238,10 +3238,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="23"/>
+      <c r="J118" s="22"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3282,10 +3282,10 @@
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="22"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3303,12 +3303,12 @@
       <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="22"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3358,9 +3358,9 @@
       <c r="G123" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="23"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="22"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3381,9 +3381,9 @@
       <c r="G124" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="23"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="22"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3401,10 +3401,10 @@
       <c r="F125" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="22"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3413,13 +3413,23 @@
       <c r="C126" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="D126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="23"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
@@ -6612,18 +6622,55 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
+  <mergeCells count="75">
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="D78:I78"/>
@@ -6640,53 +6687,17 @@
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="D61:I61"/>
     <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FFB268-C2EC-4185-87DF-1A6AE2792CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421B02B-FB08-491C-9968-7504A02C8510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -503,17 +503,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,6 +526,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1809,11 +1809,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1860,7 +1860,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="22"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2002,14 +2002,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2056,7 +2056,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="22"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2123,11 +2123,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2139,11 +2139,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2155,11 +2155,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2206,7 +2206,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="22"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2247,10 +2247,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2265,15 +2265,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="22"/>
+      <c r="I67" s="23"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2291,9 +2291,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2305,11 +2305,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2321,7 +2321,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="22"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2395,11 +2395,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2411,8 +2411,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2451,11 +2451,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2467,11 +2467,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2483,11 +2483,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2534,7 +2534,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="22"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="22"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2625,11 +2625,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2670,8 +2670,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2689,15 +2689,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="22"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="23"/>
-      <c r="I87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2709,11 +2709,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2725,15 +2725,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="22"/>
+      <c r="I89" s="23"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2745,7 +2745,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="22"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2770,10 +2770,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2788,11 +2788,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2804,11 +2804,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2820,11 +2820,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2836,12 +2836,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="23"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="23"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="22"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2856,11 +2856,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2872,11 +2872,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2888,11 +2888,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2904,9 +2904,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2933,18 +2933,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="23"/>
-      <c r="I100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2966,7 +2966,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="22"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2982,7 +2982,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="22"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -2998,7 +2998,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="22"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3014,7 +3014,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="22"/>
+      <c r="E106" s="23"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3030,7 +3030,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="22"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3046,7 +3046,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="22"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3238,10 +3238,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3282,10 +3282,10 @@
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="23"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3303,12 +3303,12 @@
       <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="23"/>
-      <c r="J121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3358,9 +3358,9 @@
       <c r="G123" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="23"/>
-      <c r="I123" s="23"/>
-      <c r="J123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3381,9 +3381,9 @@
       <c r="G124" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="23"/>
-      <c r="I124" s="23"/>
-      <c r="J124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3401,10 +3401,10 @@
       <c r="F125" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3425,22 +3425,32 @@
       <c r="G126" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="23"/>
-      <c r="I126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="23"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="B127" s="4">
+        <v>45857</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
@@ -6622,12 +6632,62 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
+  <mergeCells count="76">
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
     <mergeCell ref="B112:J113"/>
     <mergeCell ref="G124:J124"/>
     <mergeCell ref="D120:H120"/>
@@ -6644,60 +6704,11 @@
     <mergeCell ref="D84:I84"/>
     <mergeCell ref="D69:I69"/>
     <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421B02B-FB08-491C-9968-7504A02C8510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640F7500-9DDB-40C7-94D9-4783471E504F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -509,6 +509,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,12 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +850,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,14 +939,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -955,14 +955,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -971,14 +971,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -987,14 +987,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1038,10 +1038,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,14 +1053,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1147,14 +1147,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1163,14 +1163,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1188,10 +1188,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1307,14 +1307,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1358,10 +1358,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1441,14 +1441,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1483,14 +1483,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1534,10 +1534,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1704,10 +1704,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,14 +1719,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1790,14 +1790,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3083,28 +3083,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3453,15 +3453,21 @@
       <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="B128" s="4">
+        <v>45858</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="3"/>
@@ -6632,19 +6638,47 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
+  <mergeCells count="77">
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="D78:I78"/>
@@ -6661,49 +6695,22 @@
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="D61:I61"/>
     <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
     <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
     <mergeCell ref="B112:J113"/>
     <mergeCell ref="G124:J124"/>
     <mergeCell ref="D120:H120"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="F125:J125"/>
     <mergeCell ref="G123:J123"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640F7500-9DDB-40C7-94D9-4783471E504F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFA6FF-8042-40CC-87D5-3DE8C437D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 class p</t>
   </si>
 </sst>
 </file>
@@ -850,7 +853,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3470,15 +3473,33 @@
       <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="B129" s="4">
+        <v>45859</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="3"/>
@@ -6639,6 +6660,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
     <mergeCell ref="D128:J128"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D90:E90"/>
@@ -6655,67 +6737,6 @@
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="D92:I92"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBFA6FF-8042-40CC-87D5-3DE8C437D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661F1C15-3066-480A-86F2-6239C126758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 2 class p</t>
+  </si>
+  <si>
+    <t>1class p</t>
   </si>
 </sst>
 </file>
@@ -512,12 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -958,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -974,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -990,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1041,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1056,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1150,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1166,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1191,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1361,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1428,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1444,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1486,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1537,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1656,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1707,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1722,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1793,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3086,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3502,15 +3505,33 @@
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="B130" s="4">
+        <v>45860</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
@@ -6660,6 +6681,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="D106:E106"/>
@@ -6676,67 +6758,6 @@
     <mergeCell ref="F118:J118"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661F1C15-3066-480A-86F2-6239C126758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8C8697-4D1F-4762-BCED-2D5289B0804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -515,6 +515,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,12 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3534,8 +3534,12 @@
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="B131" s="4">
+        <v>45861</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
@@ -6681,6 +6685,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
     <mergeCell ref="D128:J128"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D90:E90"/>
@@ -6697,67 +6762,6 @@
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="D92:I92"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8C8697-4D1F-4762-BCED-2D5289B0804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC28CFD6-6C33-4227-9D66-6232B3ED6894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -515,12 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+      <selection activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3540,13 +3540,27 @@
       <c r="C131" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="D131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="3"/>
@@ -6685,6 +6699,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="D106:E106"/>
@@ -6701,67 +6776,6 @@
     <mergeCell ref="F118:J118"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC28CFD6-6C33-4227-9D66-6232B3ED6894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0891C289-3033-4E1A-BC1A-51B1EB556C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -515,6 +515,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,12 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="K131" sqref="K131"/>
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3563,15 +3563,33 @@
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
+      <c r="B132" s="4">
+        <v>45862</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="3"/>
@@ -6699,6 +6717,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
     <mergeCell ref="D128:J128"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D90:E90"/>
@@ -6715,67 +6794,6 @@
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="D92:I92"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0891C289-3033-4E1A-BC1A-51B1EB556C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388505D4-90FC-424F-9EF6-BC536A7EC37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -515,12 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="J134" sqref="J134"/>
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3592,15 +3592,33 @@
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="B133" s="4">
+        <v>45863</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="3"/>
@@ -6717,6 +6735,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="D106:E106"/>
@@ -6733,67 +6812,6 @@
     <mergeCell ref="F118:J118"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388505D4-90FC-424F-9EF6-BC536A7EC37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17E0EF7-4128-416E-8563-0CED7EC27A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -515,6 +515,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,12 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -6735,6 +6735,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
     <mergeCell ref="D128:J128"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D90:E90"/>
@@ -6751,67 +6812,6 @@
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="D92:I92"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17E0EF7-4128-416E-8563-0CED7EC27A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE86D106-29AF-4042-90E2-90B7027319DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -515,12 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3621,15 +3621,33 @@
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="B134" s="4">
+        <v>45864</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="3"/>
@@ -6735,6 +6753,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="D106:E106"/>
@@ -6751,67 +6830,6 @@
     <mergeCell ref="F118:J118"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE86D106-29AF-4042-90E2-90B7027319DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723731EE-4DD1-4B7F-9104-2FA88B5AFAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -515,6 +515,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,12 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J136" sqref="J136"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3650,15 +3650,21 @@
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="B135" s="4">
+        <v>45865</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="3"/>
@@ -6752,7 +6758,69 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="78">
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
     <mergeCell ref="D128:J128"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D90:E90"/>
@@ -6769,67 +6837,6 @@
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="D92:I92"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723731EE-4DD1-4B7F-9104-2FA88B5AFAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAD5BC0-7978-408B-AA03-81126473AF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -515,12 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3667,18 +3667,36 @@
       <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="B136" s="4">
+        <v>45866</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B137" s="3"/>
+      <c r="B137" s="4"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6759,26 +6777,47 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="D78:I78"/>
@@ -6795,48 +6834,27 @@
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="D61:I61"/>
     <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
     <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAD5BC0-7978-408B-AA03-81126473AF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6626CFF2-5FC8-4CF6-95E7-5C1ACE3201EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -506,14 +506,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,12 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="21"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1812,13 +1812,13 @@
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
       <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="22" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="23"/>
@@ -2008,14 +2008,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2059,7 +2059,7 @@
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H57" s="23"/>
@@ -2126,13 +2126,13 @@
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
@@ -2142,13 +2142,13 @@
       <c r="C61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
       <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
@@ -2158,13 +2158,13 @@
       <c r="C62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
       <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
       <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H64" s="23"/>
@@ -2250,12 +2250,12 @@
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
+      <c r="D66" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
       <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
@@ -2268,15 +2268,15 @@
       <c r="C67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="22"/>
+      <c r="D67" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="24"/>
       <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="23"/>
@@ -2294,11 +2294,11 @@
       <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
+      <c r="F68" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -2308,13 +2308,13 @@
       <c r="C69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
       <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="23"/>
@@ -2357,7 +2357,7 @@
       <c r="F71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G71" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H71" s="23"/>
@@ -2398,13 +2398,13 @@
       <c r="C73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
       <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="22"/>
+      <c r="D74" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="24"/>
       <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
@@ -2454,13 +2454,13 @@
       <c r="C76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
       <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
@@ -2470,13 +2470,13 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
@@ -2486,13 +2486,13 @@
       <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
       <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,7 +2537,7 @@
       <c r="F80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="22" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="23"/>
@@ -2561,7 +2561,7 @@
       <c r="F81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="G81" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="23"/>
@@ -2628,13 +2628,13 @@
       <c r="C84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
       <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
@@ -2673,10 +2673,10 @@
       <c r="D86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="22"/>
+      <c r="F86" s="24"/>
       <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
@@ -2692,17 +2692,17 @@
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="22"/>
+      <c r="G87" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="24"/>
       <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
@@ -2712,13 +2712,13 @@
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
       <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
@@ -2728,15 +2728,15 @@
       <c r="C89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="22"/>
+      <c r="E89" s="24"/>
       <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="21" t="s">
+      <c r="H89" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="23"/>
@@ -2748,7 +2748,7 @@
       <c r="C90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="23"/>
@@ -2773,12 +2773,12 @@
       <c r="C91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
       <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
@@ -2791,13 +2791,13 @@
       <c r="C92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
       <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
@@ -2807,13 +2807,13 @@
       <c r="C93" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
       <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
@@ -2823,13 +2823,13 @@
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
+      <c r="D94" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
       <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
@@ -2839,12 +2839,12 @@
       <c r="C95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="22"/>
+      <c r="E95" s="24"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="21" t="s">
+      <c r="G95" s="22" t="s">
         <v>48</v>
       </c>
       <c r="H95" s="23"/>
@@ -2859,13 +2859,13 @@
       <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
       <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
@@ -2875,13 +2875,13 @@
       <c r="C97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
+      <c r="D97" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
       <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
@@ -2891,13 +2891,13 @@
       <c r="C98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
       <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
@@ -2907,11 +2907,11 @@
       <c r="C99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
+      <c r="D99" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
       <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
@@ -2936,20 +2936,20 @@
       <c r="F100" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G100" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="22"/>
+      <c r="G100" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="24"/>
       <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
       <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
       <c r="C103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E103" s="23"/>
@@ -2985,7 +2985,7 @@
       <c r="C104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E104" s="23"/>
@@ -3001,7 +3001,7 @@
       <c r="C105" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="22" t="s">
         <v>53</v>
       </c>
       <c r="E105" s="23"/>
@@ -3017,7 +3017,7 @@
       <c r="C106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="22" t="s">
         <v>54</v>
       </c>
       <c r="E106" s="23"/>
@@ -3033,7 +3033,7 @@
       <c r="C107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E107" s="23"/>
@@ -3049,7 +3049,7 @@
       <c r="C108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E108" s="23"/>
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3241,12 +3241,12 @@
       <c r="E118" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
+      <c r="F118" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
       <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
@@ -3285,12 +3285,12 @@
       <c r="C120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
+      <c r="D120" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
       <c r="H120" s="23"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
@@ -3306,14 +3306,14 @@
       <c r="C121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
       <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
@@ -3361,11 +3361,11 @@
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
+      <c r="G123" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
       <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
@@ -3384,11 +3384,11 @@
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
+      <c r="G124" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
       <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
@@ -3404,12 +3404,12 @@
       <c r="E125" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
+      <c r="F125" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
       <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
@@ -3428,10 +3428,10 @@
       <c r="F126" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G126" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="22"/>
+      <c r="G126" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="24"/>
       <c r="I126" s="23"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
@@ -3450,12 +3450,12 @@
       <c r="E127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
+      <c r="F127" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
       <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
@@ -3465,14 +3465,14 @@
       <c r="C128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
       <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
@@ -3656,14 +3656,14 @@
       <c r="C135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="21" t="s">
+      <c r="D135" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
       <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
@@ -3696,15 +3696,33 @@
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B137" s="4"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="B137" s="4">
+        <v>45867</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="3"/>
@@ -6777,47 +6795,26 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="D78:I78"/>
@@ -6834,27 +6831,48 @@
     <mergeCell ref="D62:I62"/>
     <mergeCell ref="D61:I61"/>
     <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
     <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6626CFF2-5FC8-4CF6-95E7-5C1ACE3201EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE768258-5EBE-459B-A557-AEC11D25CB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -506,20 +506,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="J137" sqref="J137"/>
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="21"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1812,13 +1812,13 @@
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
       <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="23"/>
@@ -2008,14 +2008,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2059,7 +2059,7 @@
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H57" s="23"/>
@@ -2126,13 +2126,13 @@
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
@@ -2142,13 +2142,13 @@
       <c r="C61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
@@ -2158,13 +2158,13 @@
       <c r="C62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
       <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H64" s="23"/>
@@ -2250,12 +2250,12 @@
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
+      <c r="D66" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
       <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
@@ -2268,15 +2268,15 @@
       <c r="C67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="24"/>
+      <c r="D67" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="22"/>
       <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="22" t="s">
+      <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="23"/>
@@ -2294,11 +2294,11 @@
       <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
+      <c r="F68" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -2308,13 +2308,13 @@
       <c r="C69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
       <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="23"/>
@@ -2357,7 +2357,7 @@
       <c r="F71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H71" s="23"/>
@@ -2398,13 +2398,13 @@
       <c r="C73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="24"/>
+      <c r="D74" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="22"/>
       <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
@@ -2454,13 +2454,13 @@
       <c r="C76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
       <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
@@ -2470,13 +2470,13 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
       <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
@@ -2486,13 +2486,13 @@
       <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
       <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,7 +2537,7 @@
       <c r="F80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="23"/>
@@ -2561,7 +2561,7 @@
       <c r="F81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="23"/>
@@ -2628,13 +2628,13 @@
       <c r="C84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
       <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
@@ -2673,10 +2673,10 @@
       <c r="D86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="24"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
@@ -2692,17 +2692,17 @@
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="24"/>
+      <c r="G87" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="22"/>
       <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
@@ -2712,13 +2712,13 @@
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
       <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
@@ -2728,15 +2728,15 @@
       <c r="C89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="24"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="22" t="s">
+      <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="23"/>
@@ -2748,7 +2748,7 @@
       <c r="C90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="23"/>
@@ -2773,12 +2773,12 @@
       <c r="C91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
       <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
@@ -2791,13 +2791,13 @@
       <c r="C92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
       <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
@@ -2807,13 +2807,13 @@
       <c r="C93" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
       <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
@@ -2823,13 +2823,13 @@
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
+      <c r="D94" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
       <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
@@ -2839,12 +2839,12 @@
       <c r="C95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="24"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
       <c r="H95" s="23"/>
@@ -2859,13 +2859,13 @@
       <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
       <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
@@ -2875,13 +2875,13 @@
       <c r="C97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
+      <c r="D97" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
       <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
@@ -2891,13 +2891,13 @@
       <c r="C98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
       <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
@@ -2907,11 +2907,11 @@
       <c r="C99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
+      <c r="D99" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
@@ -2936,20 +2936,20 @@
       <c r="F100" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G100" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="24"/>
+      <c r="G100" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="22"/>
       <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="22"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
       <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
       <c r="C103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="22" t="s">
+      <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E103" s="23"/>
@@ -2985,7 +2985,7 @@
       <c r="C104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E104" s="23"/>
@@ -3001,7 +3001,7 @@
       <c r="C105" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E105" s="23"/>
@@ -3017,7 +3017,7 @@
       <c r="C106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E106" s="23"/>
@@ -3033,7 +3033,7 @@
       <c r="C107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E107" s="23"/>
@@ -3049,7 +3049,7 @@
       <c r="C108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E108" s="23"/>
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3241,12 +3241,12 @@
       <c r="E118" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
+      <c r="F118" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
       <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
@@ -3285,12 +3285,12 @@
       <c r="C120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
+      <c r="D120" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
       <c r="H120" s="23"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
@@ -3306,14 +3306,14 @@
       <c r="C121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
       <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
@@ -3361,11 +3361,11 @@
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
+      <c r="G123" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
       <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
@@ -3384,11 +3384,11 @@
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
+      <c r="G124" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
       <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
@@ -3404,12 +3404,12 @@
       <c r="E125" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
+      <c r="F125" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
       <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
@@ -3428,10 +3428,10 @@
       <c r="F126" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G126" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="24"/>
+      <c r="G126" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="22"/>
       <c r="I126" s="23"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
@@ -3450,12 +3450,12 @@
       <c r="E127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
+      <c r="F127" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
       <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
@@ -3465,14 +3465,14 @@
       <c r="C128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
       <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
@@ -3656,14 +3656,14 @@
       <c r="C135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D135" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
       <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
@@ -3725,15 +3725,33 @@
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="B138" s="4">
+        <v>45868</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="3"/>
@@ -6795,6 +6813,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
     <mergeCell ref="D135:J135"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="D107:E107"/>
@@ -6811,68 +6891,6 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="B112:J113"/>
     <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE768258-5EBE-459B-A557-AEC11D25CB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77669AAE-C7E8-4624-99C4-E01C5EEDA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -506,14 +506,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,12 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="K137" sqref="K137"/>
+      <selection activeCell="L139" sqref="L139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1812,13 +1812,13 @@
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
       <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="22" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="23"/>
@@ -2008,14 +2008,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2059,7 +2059,7 @@
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H57" s="23"/>
@@ -2126,13 +2126,13 @@
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
@@ -2142,13 +2142,13 @@
       <c r="C61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
       <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
@@ -2158,13 +2158,13 @@
       <c r="C62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
       <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
       <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H64" s="23"/>
@@ -2250,12 +2250,12 @@
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
+      <c r="D66" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
       <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
@@ -2268,15 +2268,15 @@
       <c r="C67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="22"/>
+      <c r="D67" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="21"/>
       <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="23"/>
@@ -2294,11 +2294,11 @@
       <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
+      <c r="F68" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
       <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -2308,13 +2308,13 @@
       <c r="C69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
       <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="23"/>
@@ -2357,7 +2357,7 @@
       <c r="F71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G71" s="22" t="s">
         <v>37</v>
       </c>
       <c r="H71" s="23"/>
@@ -2398,13 +2398,13 @@
       <c r="C73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
       <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="22"/>
+      <c r="D74" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="21"/>
       <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
@@ -2454,13 +2454,13 @@
       <c r="C76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
       <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
@@ -2470,13 +2470,13 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
       <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
@@ -2486,13 +2486,13 @@
       <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
       <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,7 +2537,7 @@
       <c r="F80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="22" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="23"/>
@@ -2561,7 +2561,7 @@
       <c r="F81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="G81" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="23"/>
@@ -2628,13 +2628,13 @@
       <c r="C84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
       <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
@@ -2673,10 +2673,10 @@
       <c r="D86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="22"/>
+      <c r="F86" s="21"/>
       <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
@@ -2692,17 +2692,17 @@
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="22"/>
+      <c r="G87" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="21"/>
       <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
@@ -2712,13 +2712,13 @@
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
       <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
@@ -2728,15 +2728,15 @@
       <c r="C89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="22"/>
+      <c r="E89" s="21"/>
       <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="21" t="s">
+      <c r="H89" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="23"/>
@@ -2748,7 +2748,7 @@
       <c r="C90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="23"/>
@@ -2773,12 +2773,12 @@
       <c r="C91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
       <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
@@ -2791,13 +2791,13 @@
       <c r="C92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
       <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
@@ -2807,13 +2807,13 @@
       <c r="C93" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
       <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
@@ -2823,13 +2823,13 @@
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
+      <c r="D94" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
       <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
@@ -2839,12 +2839,12 @@
       <c r="C95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="22"/>
+      <c r="E95" s="21"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="21" t="s">
+      <c r="G95" s="22" t="s">
         <v>48</v>
       </c>
       <c r="H95" s="23"/>
@@ -2859,13 +2859,13 @@
       <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
       <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
@@ -2875,13 +2875,13 @@
       <c r="C97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
+      <c r="D97" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
       <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
@@ -2891,13 +2891,13 @@
       <c r="C98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
       <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
@@ -2907,11 +2907,11 @@
       <c r="C99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
+      <c r="D99" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
       <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
@@ -2936,20 +2936,20 @@
       <c r="F100" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G100" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="22"/>
+      <c r="G100" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="21"/>
       <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
       <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
       <c r="C103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E103" s="23"/>
@@ -2985,7 +2985,7 @@
       <c r="C104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="22" t="s">
         <v>52</v>
       </c>
       <c r="E104" s="23"/>
@@ -3001,7 +3001,7 @@
       <c r="C105" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="22" t="s">
         <v>53</v>
       </c>
       <c r="E105" s="23"/>
@@ -3017,7 +3017,7 @@
       <c r="C106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="22" t="s">
         <v>54</v>
       </c>
       <c r="E106" s="23"/>
@@ -3033,7 +3033,7 @@
       <c r="C107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E107" s="23"/>
@@ -3049,7 +3049,7 @@
       <c r="C108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E108" s="23"/>
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3241,12 +3241,12 @@
       <c r="E118" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
+      <c r="F118" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
       <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
@@ -3285,12 +3285,12 @@
       <c r="C120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
+      <c r="D120" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
       <c r="H120" s="23"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
@@ -3306,14 +3306,14 @@
       <c r="C121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
       <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
@@ -3361,11 +3361,11 @@
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
+      <c r="G123" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
       <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
@@ -3384,11 +3384,11 @@
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
+      <c r="G124" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
       <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
@@ -3404,12 +3404,12 @@
       <c r="E125" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
+      <c r="F125" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
       <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
@@ -3428,10 +3428,10 @@
       <c r="F126" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G126" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="22"/>
+      <c r="G126" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="21"/>
       <c r="I126" s="23"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
@@ -3450,12 +3450,12 @@
       <c r="E127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
+      <c r="F127" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
       <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
@@ -3465,14 +3465,14 @@
       <c r="C128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
       <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
@@ -3656,14 +3656,14 @@
       <c r="C135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="21" t="s">
+      <c r="D135" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
       <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
@@ -3754,15 +3754,29 @@
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
+      <c r="B139" s="4">
+        <v>45869</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="J139" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
@@ -6813,52 +6827,22 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
@@ -6875,22 +6859,52 @@
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77669AAE-C7E8-4624-99C4-E01C5EEDA8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17ABC5-720F-4859-B652-B38941F3735F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -506,20 +506,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="L139" sqref="L139"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1812,13 +1812,13 @@
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
       <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="23"/>
@@ -2008,14 +2008,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2059,7 +2059,7 @@
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H57" s="23"/>
@@ -2126,13 +2126,13 @@
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
@@ -2142,13 +2142,13 @@
       <c r="C61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
@@ -2158,13 +2158,13 @@
       <c r="C62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
       <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
       <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H64" s="23"/>
@@ -2250,12 +2250,12 @@
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+      <c r="D66" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
       <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
@@ -2268,15 +2268,15 @@
       <c r="C67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="21"/>
+      <c r="D67" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="22"/>
       <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="22" t="s">
+      <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="23"/>
@@ -2294,11 +2294,11 @@
       <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
+      <c r="F68" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
@@ -2308,13 +2308,13 @@
       <c r="C69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
       <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
@@ -2324,7 +2324,7 @@
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="23"/>
@@ -2357,7 +2357,7 @@
       <c r="F71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H71" s="23"/>
@@ -2398,13 +2398,13 @@
       <c r="C73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="21"/>
+      <c r="D74" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="22"/>
       <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
@@ -2454,13 +2454,13 @@
       <c r="C76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
       <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
@@ -2470,13 +2470,13 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
       <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
@@ -2486,13 +2486,13 @@
       <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
       <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,7 +2537,7 @@
       <c r="F80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
       <c r="H80" s="23"/>
@@ -2561,7 +2561,7 @@
       <c r="F81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="23"/>
@@ -2628,13 +2628,13 @@
       <c r="C84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
       <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
@@ -2673,10 +2673,10 @@
       <c r="D86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="21"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
@@ -2692,17 +2692,17 @@
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="21"/>
+      <c r="G87" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="22"/>
       <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
@@ -2712,13 +2712,13 @@
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
       <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
@@ -2728,15 +2728,15 @@
       <c r="C89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="21"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="22" t="s">
+      <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="23"/>
@@ -2748,7 +2748,7 @@
       <c r="C90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="23"/>
@@ -2773,12 +2773,12 @@
       <c r="C91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
       <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
@@ -2791,13 +2791,13 @@
       <c r="C92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
       <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
@@ -2807,13 +2807,13 @@
       <c r="C93" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
       <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
@@ -2823,13 +2823,13 @@
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
+      <c r="D94" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
       <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
@@ -2839,12 +2839,12 @@
       <c r="C95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="21"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
       <c r="H95" s="23"/>
@@ -2859,13 +2859,13 @@
       <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
       <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
@@ -2875,13 +2875,13 @@
       <c r="C97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
+      <c r="D97" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
       <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
@@ -2891,13 +2891,13 @@
       <c r="C98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
       <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
@@ -2907,11 +2907,11 @@
       <c r="C99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
+      <c r="D99" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
@@ -2936,20 +2936,20 @@
       <c r="F100" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G100" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="21"/>
+      <c r="G100" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="22"/>
       <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="22"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
       <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
       <c r="C103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="22" t="s">
+      <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E103" s="23"/>
@@ -2985,7 +2985,7 @@
       <c r="C104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E104" s="23"/>
@@ -3001,7 +3001,7 @@
       <c r="C105" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E105" s="23"/>
@@ -3017,7 +3017,7 @@
       <c r="C106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E106" s="23"/>
@@ -3033,7 +3033,7 @@
       <c r="C107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
       <c r="E107" s="23"/>
@@ -3049,7 +3049,7 @@
       <c r="C108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E108" s="23"/>
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3241,12 +3241,12 @@
       <c r="E118" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
-      <c r="I118" s="21"/>
+      <c r="F118" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
       <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
@@ -3285,12 +3285,12 @@
       <c r="C120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
+      <c r="D120" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
       <c r="H120" s="23"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
@@ -3306,14 +3306,14 @@
       <c r="C121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="21"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
       <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
@@ -3361,11 +3361,11 @@
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
+      <c r="G123" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
       <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
@@ -3384,11 +3384,11 @@
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="21"/>
-      <c r="I124" s="21"/>
+      <c r="G124" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
       <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
@@ -3404,12 +3404,12 @@
       <c r="E125" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
+      <c r="F125" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
       <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
@@ -3428,10 +3428,10 @@
       <c r="F126" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G126" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="21"/>
+      <c r="G126" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="22"/>
       <c r="I126" s="23"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
@@ -3450,12 +3450,12 @@
       <c r="E127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
+      <c r="F127" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
       <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
@@ -3465,14 +3465,14 @@
       <c r="C128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
       <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
@@ -3656,14 +3656,14 @@
       <c r="C135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D135" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="21"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
-      <c r="I135" s="21"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
       <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
@@ -3763,7 +3763,9 @@
       <c r="D139" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F139" s="3" t="s">
         <v>14</v>
       </c>
@@ -3773,23 +3775,43 @@
       <c r="H139" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I139" s="1"/>
+      <c r="I139" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J139" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -6827,6 +6849,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
     <mergeCell ref="D135:J135"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="D107:E107"/>
@@ -6843,68 +6927,6 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="B112:J113"/>
     <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17ABC5-720F-4859-B652-B38941F3735F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053418CF-E147-4270-B35E-BB772408CFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -509,11 +509,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,12 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1815,11 +1815,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1866,7 +1866,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2008,14 +2008,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2062,7 +2062,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="23"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2129,11 +2129,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2145,11 +2145,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="22"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2161,11 +2161,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="22"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2212,7 +2212,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="23"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2253,10 +2253,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2271,15 +2271,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="23"/>
+      <c r="I67" s="22"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2297,9 +2297,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="22"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2311,11 +2311,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="22"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2327,7 +2327,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="23"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2401,11 +2401,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="22"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2417,8 +2417,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2457,11 +2457,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="22"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2473,11 +2473,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="22"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2489,11 +2489,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2540,7 +2540,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="23"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2631,11 +2631,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2676,8 +2676,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="22"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2695,15 +2695,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="23"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2715,11 +2715,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="22"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2731,15 +2731,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="23"/>
+      <c r="I89" s="22"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2751,7 +2751,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2776,10 +2776,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="22"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2794,11 +2794,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="22"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2810,11 +2810,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="22"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2826,11 +2826,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="22"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2842,12 +2842,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="23"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2862,11 +2862,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="22"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2878,11 +2878,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="22"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2894,11 +2894,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="22"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2910,9 +2910,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="22"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2939,18 +2939,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="22"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="22"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2972,7 +2972,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2988,7 +2988,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3004,7 +3004,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3020,7 +3020,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3036,7 +3036,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3052,7 +3052,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3244,10 +3244,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="23"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="22"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3288,10 +3288,10 @@
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="23"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="22"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3309,12 +3309,12 @@
       <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="23"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="22"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3364,9 +3364,9 @@
       <c r="G123" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="23"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="22"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3387,9 +3387,9 @@
       <c r="G124" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="23"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="22"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3407,10 +3407,10 @@
       <c r="F125" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="23"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="22"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3431,8 +3431,8 @@
       <c r="G126" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="23"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="22"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
       </c>
@@ -3453,10 +3453,10 @@
       <c r="F127" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="23"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="22"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
@@ -3468,12 +3468,12 @@
       <c r="D128" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="23"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="22"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
@@ -3659,12 +3659,12 @@
       <c r="D135" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="23"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="22"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
@@ -3812,15 +3812,33 @@
       </c>
     </row>
     <row r="141" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="B141" s="4">
+        <v>45870</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" s="3"/>
@@ -6849,52 +6867,22 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
@@ -6911,22 +6899,52 @@
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053418CF-E147-4270-B35E-BB772408CFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16167AD4-F54B-4228-BA6D-5984F7923E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -509,17 +509,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,6 +532,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="J141" sqref="J141"/>
+      <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="23"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1815,11 +1815,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1866,7 +1866,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="22"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2008,14 +2008,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2062,7 +2062,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="22"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2129,11 +2129,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2145,11 +2145,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2161,11 +2161,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2212,7 +2212,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="22"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2253,10 +2253,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2271,15 +2271,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="22"/>
+      <c r="I67" s="23"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2297,9 +2297,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2311,11 +2311,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2327,7 +2327,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="22"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2401,11 +2401,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2417,8 +2417,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2457,11 +2457,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2473,11 +2473,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2489,11 +2489,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2540,7 +2540,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="22"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="22"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2631,11 +2631,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2676,8 +2676,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2695,15 +2695,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="22"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="24"/>
-      <c r="I87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2715,11 +2715,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2731,15 +2731,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="22"/>
+      <c r="I89" s="23"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2751,7 +2751,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="22"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2776,10 +2776,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2794,11 +2794,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2810,11 +2810,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2826,11 +2826,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2842,12 +2842,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="23"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="22"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2862,11 +2862,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2878,11 +2878,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2894,11 +2894,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2910,9 +2910,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2939,18 +2939,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="24"/>
-      <c r="I100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2972,7 +2972,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="22"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2988,7 +2988,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="22"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3004,7 +3004,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="22"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3020,7 +3020,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="22"/>
+      <c r="E106" s="23"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3036,7 +3036,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="22"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3052,7 +3052,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="22"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3244,10 +3244,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3288,10 +3288,10 @@
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="23"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3309,12 +3309,12 @@
       <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3364,9 +3364,9 @@
       <c r="G123" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3387,9 +3387,9 @@
       <c r="G124" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3407,10 +3407,10 @@
       <c r="F125" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3431,8 +3431,8 @@
       <c r="G126" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="24"/>
-      <c r="I126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="23"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
       </c>
@@ -3453,10 +3453,10 @@
       <c r="F127" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
@@ -3468,12 +3468,12 @@
       <c r="D128" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
@@ -3659,12 +3659,12 @@
       <c r="D135" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
@@ -3841,15 +3841,33 @@
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
+      <c r="B142" s="4">
+        <v>45871</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" s="3"/>
@@ -6867,6 +6885,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
     <mergeCell ref="D135:J135"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="D107:E107"/>
@@ -6883,68 +6963,6 @@
     <mergeCell ref="D108:E108"/>
     <mergeCell ref="B112:J113"/>
     <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16167AD4-F54B-4228-BA6D-5984F7923E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEA242B-BE96-4242-BF3D-D45B58343D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -509,11 +509,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,12 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +945,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +961,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +977,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +993,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1044,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1059,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1153,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1169,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1194,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1313,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1364,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1447,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1489,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1540,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1710,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1725,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1796,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1815,11 +1815,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1866,7 +1866,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2008,14 +2008,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2062,7 +2062,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="23"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2129,11 +2129,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2145,11 +2145,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="22"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2161,11 +2161,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="22"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2212,7 +2212,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="23"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2253,10 +2253,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2271,15 +2271,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="23"/>
+      <c r="I67" s="22"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2297,9 +2297,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="22"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2311,11 +2311,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="22"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2327,7 +2327,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="23"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2401,11 +2401,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="22"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2417,8 +2417,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2457,11 +2457,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="22"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2473,11 +2473,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="22"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2489,11 +2489,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2540,7 +2540,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="23"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2631,11 +2631,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2676,8 +2676,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="22"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2695,15 +2695,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="23"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2715,11 +2715,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="22"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2731,15 +2731,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="23"/>
+      <c r="I89" s="22"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2751,7 +2751,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2776,10 +2776,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="22"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2794,11 +2794,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="22"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2810,11 +2810,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="22"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2826,11 +2826,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="22"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2842,12 +2842,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="23"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2862,11 +2862,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="22"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2878,11 +2878,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="22"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2894,11 +2894,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="22"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2910,9 +2910,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="22"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2939,18 +2939,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="22"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="22"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2972,7 +2972,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2988,7 +2988,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3004,7 +3004,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3020,7 +3020,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3036,7 +3036,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3052,7 +3052,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3089,28 +3089,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3244,10 +3244,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="23"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="22"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3288,10 +3288,10 @@
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="23"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="22"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3309,12 +3309,12 @@
       <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="23"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="22"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3364,9 +3364,9 @@
       <c r="G123" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="23"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="22"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3387,9 +3387,9 @@
       <c r="G124" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="23"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="22"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3407,10 +3407,10 @@
       <c r="F125" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="23"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="22"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3431,8 +3431,8 @@
       <c r="G126" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="23"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="22"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
       </c>
@@ -3453,10 +3453,10 @@
       <c r="F127" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="23"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="22"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
@@ -3468,12 +3468,12 @@
       <c r="D128" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="23"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="22"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
@@ -3659,12 +3659,12 @@
       <c r="D135" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="23"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="22"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
@@ -3870,15 +3870,21 @@
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="B143" s="4">
+        <v>45872</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="22"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="3"/>
@@ -6884,53 +6890,24 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
+  <mergeCells count="79">
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
@@ -6947,22 +6924,52 @@
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEA242B-BE96-4242-BF3D-D45B58343D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F769238-9114-4D0B-96A6-96AECB0AB11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>1class p</t>
+  </si>
+  <si>
+    <t>2 class ab</t>
   </si>
 </sst>
 </file>
@@ -509,17 +512,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,6 +535,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +859,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+      <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +948,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -961,14 +964,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -977,14 +980,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -993,14 +996,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1044,10 +1047,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,14 +1062,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1153,14 +1156,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1169,14 +1172,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1194,10 +1197,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,14 +1316,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1364,10 +1367,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1434,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1447,14 +1450,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1489,14 +1492,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1540,10 +1543,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1662,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1710,10 +1713,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="23"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1725,14 +1728,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1796,14 +1799,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1815,11 +1818,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1866,7 +1869,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="22"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2008,14 +2011,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2062,7 +2065,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="22"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2129,11 +2132,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2145,11 +2148,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2161,11 +2164,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2212,7 +2215,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="22"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2253,10 +2256,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2271,15 +2274,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="22"/>
+      <c r="I67" s="23"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2297,9 +2300,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2311,11 +2314,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2327,7 +2330,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2360,7 +2363,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="22"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2401,11 +2404,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2417,8 +2420,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2457,11 +2460,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2473,11 +2476,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2489,11 +2492,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2540,7 +2543,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="22"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2564,7 +2567,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="22"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2631,11 +2634,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2676,8 +2679,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2695,15 +2698,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="22"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="24"/>
-      <c r="I87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2715,11 +2718,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2731,15 +2734,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="22"/>
+      <c r="I89" s="23"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2751,7 +2754,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="22"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2776,10 +2779,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2794,11 +2797,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2810,11 +2813,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2826,11 +2829,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2842,12 +2845,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="23"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="22"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2862,11 +2865,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2878,11 +2881,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2894,11 +2897,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2910,9 +2913,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2939,18 +2942,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="24"/>
-      <c r="I100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2972,7 +2975,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="22"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2988,7 +2991,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="22"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3004,7 +3007,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="22"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3020,7 +3023,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="22"/>
+      <c r="E106" s="23"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3036,7 +3039,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="22"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3052,7 +3055,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="22"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3089,28 +3092,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3244,10 +3247,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3288,10 +3291,10 @@
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="23"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3309,12 +3312,12 @@
       <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3364,9 +3367,9 @@
       <c r="G123" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3387,9 +3390,9 @@
       <c r="G124" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3407,10 +3410,10 @@
       <c r="F125" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3431,8 +3434,8 @@
       <c r="G126" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="24"/>
-      <c r="I126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="23"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
       </c>
@@ -3453,10 +3456,10 @@
       <c r="F127" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
@@ -3468,12 +3471,12 @@
       <c r="D128" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
@@ -3659,12 +3662,12 @@
       <c r="D135" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
@@ -3879,23 +3882,41 @@
       <c r="D143" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+      <c r="J143" s="23"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="B144" s="4">
+        <v>45873</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="3"/>
@@ -6891,11 +6912,64 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="F125:J125"/>
@@ -6912,64 +6986,11 @@
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F769238-9114-4D0B-96A6-96AECB0AB11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75C86B-3D2E-4100-BB02-6158A70DFBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -512,11 +512,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,12 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +859,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145"/>
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,14 +948,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -964,14 +964,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -980,14 +980,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -996,14 +996,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1047,10 +1047,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1062,14 +1062,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1156,14 +1156,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1172,14 +1172,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1197,10 +1197,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,14 +1316,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1367,10 +1367,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1434,14 +1434,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1450,14 +1450,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1492,14 +1492,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1543,10 +1543,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,14 +1662,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1713,10 +1713,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1728,14 +1728,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1799,14 +1799,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1818,11 +1818,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1869,7 +1869,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2011,14 +2011,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2065,7 +2065,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="23"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2132,11 +2132,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2148,11 +2148,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="22"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2164,11 +2164,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="22"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2215,7 +2215,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="23"/>
+      <c r="H64" s="22"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2256,10 +2256,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2274,15 +2274,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="23"/>
+      <c r="I67" s="22"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2300,9 +2300,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="22"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2314,11 +2314,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="22"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2330,7 +2330,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="23"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2404,11 +2404,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="22"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2420,8 +2420,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2460,11 +2460,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="22"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2476,11 +2476,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="22"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2492,11 +2492,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2543,7 +2543,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="23"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="23"/>
+      <c r="H81" s="22"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2634,11 +2634,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2679,8 +2679,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="22"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2698,15 +2698,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="23"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2718,11 +2718,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="22"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2734,15 +2734,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="23"/>
+      <c r="I89" s="22"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2754,7 +2754,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2779,10 +2779,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="22"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2797,11 +2797,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="22"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2813,11 +2813,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="22"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2829,11 +2829,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="22"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2845,12 +2845,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="23"/>
+      <c r="H95" s="22"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2865,11 +2865,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="22"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2881,11 +2881,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="22"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2897,11 +2897,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="22"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2913,9 +2913,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="22"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2942,18 +2942,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="22"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="22"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2975,7 +2975,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2991,7 +2991,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3007,7 +3007,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3023,7 +3023,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3039,7 +3039,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3055,7 +3055,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3092,28 +3092,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3247,10 +3247,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="23"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="22"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3291,10 +3291,10 @@
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="23"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="22"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3312,12 +3312,12 @@
       <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="23"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="22"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3367,9 +3367,9 @@
       <c r="G123" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="23"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="22"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3390,9 +3390,9 @@
       <c r="G124" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="23"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="22"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3410,10 +3410,10 @@
       <c r="F125" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="23"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="22"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3434,8 +3434,8 @@
       <c r="G126" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="23"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="22"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
       </c>
@@ -3456,10 +3456,10 @@
       <c r="F127" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="23"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="22"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
@@ -3471,12 +3471,12 @@
       <c r="D128" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="23"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="22"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
@@ -3662,12 +3662,12 @@
       <c r="D135" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="23"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="22"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
@@ -3882,12 +3882,12 @@
       <c r="D143" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
-      <c r="J143" s="23"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="22"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="4">
@@ -3919,15 +3919,33 @@
       </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
+      <c r="B145" s="4">
+        <v>45874</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B146" s="3"/>
@@ -6912,48 +6930,27 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="D78:I78"/>
@@ -6970,27 +6967,48 @@
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75C86B-3D2E-4100-BB02-6158A70DFBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E6025-3994-481E-82CA-3046BBA787C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -512,17 +512,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,6 +535,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +859,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,14 +948,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -964,14 +964,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -980,14 +980,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -996,14 +996,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1047,10 +1047,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1062,14 +1062,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1156,14 +1156,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1172,14 +1172,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1197,10 +1197,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,14 +1316,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1367,10 +1367,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1434,14 +1434,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1450,14 +1450,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1492,14 +1492,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1543,10 +1543,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,14 +1662,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1713,10 +1713,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="23"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1728,14 +1728,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1799,14 +1799,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -1818,11 +1818,11 @@
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1869,7 +1869,7 @@
       <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="22"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2011,14 +2011,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2065,7 +2065,7 @@
       <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="22"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2132,11 +2132,11 @@
       <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2148,11 +2148,11 @@
       <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2164,11 +2164,11 @@
       <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2215,7 +2215,7 @@
       <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="22"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2256,10 +2256,10 @@
       <c r="D66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2274,15 +2274,15 @@
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="22"/>
+      <c r="I67" s="23"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2300,9 +2300,9 @@
       <c r="F68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2314,11 +2314,11 @@
       <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2330,7 +2330,7 @@
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="22"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2404,11 +2404,11 @@
       <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2420,8 +2420,8 @@
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2460,11 +2460,11 @@
       <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2476,11 +2476,11 @@
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2492,11 +2492,11 @@
       <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2543,7 +2543,7 @@
       <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="22"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="G81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="22"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2634,11 +2634,11 @@
       <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2679,8 +2679,8 @@
       <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2698,15 +2698,15 @@
       <c r="D87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="22"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="24"/>
-      <c r="I87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2718,11 +2718,11 @@
       <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2734,15 +2734,15 @@
       <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="22"/>
+      <c r="I89" s="23"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2754,7 +2754,7 @@
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="22"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2779,10 +2779,10 @@
       <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2797,11 +2797,11 @@
       <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2813,11 +2813,11 @@
       <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2829,11 +2829,11 @@
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2845,12 +2845,12 @@
       <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="23"/>
       <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="22"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2865,11 +2865,11 @@
       <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2881,11 +2881,11 @@
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2897,11 +2897,11 @@
       <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2913,9 +2913,9 @@
       <c r="D99" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2942,18 +2942,18 @@
       <c r="G100" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="24"/>
-      <c r="I100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="21"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2975,7 +2975,7 @@
       <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="22"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -2991,7 +2991,7 @@
       <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="22"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3007,7 +3007,7 @@
       <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="22"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3023,7 +3023,7 @@
       <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="22"/>
+      <c r="E106" s="23"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3039,7 +3039,7 @@
       <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="22"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3055,7 +3055,7 @@
       <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="22"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3092,28 +3092,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3247,10 +3247,10 @@
       <c r="F118" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3291,10 +3291,10 @@
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="23"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3312,12 +3312,12 @@
       <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3367,9 +3367,9 @@
       <c r="G123" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3390,9 +3390,9 @@
       <c r="G124" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3410,10 +3410,10 @@
       <c r="F125" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3434,8 +3434,8 @@
       <c r="G126" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="24"/>
-      <c r="I126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="23"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
       </c>
@@ -3456,10 +3456,10 @@
       <c r="F127" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
@@ -3471,12 +3471,12 @@
       <c r="D128" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
@@ -3662,12 +3662,12 @@
       <c r="D135" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
@@ -3882,12 +3882,12 @@
       <c r="D143" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+      <c r="J143" s="23"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="4">
@@ -3948,15 +3948,27 @@
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="B146" s="4">
+        <v>45875</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="23"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="3"/>
@@ -6929,12 +6941,66 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
+  <mergeCells count="80">
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="F125:J125"/>
@@ -6951,64 +7017,11 @@
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92E6025-3994-481E-82CA-3046BBA787C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949E61AB-541F-4463-B487-FD23209F0E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -518,6 +518,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,12 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +859,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,14 +948,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -964,14 +964,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -980,14 +980,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -996,14 +996,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1047,10 +1047,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1062,14 +1062,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1156,14 +1156,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1172,14 +1172,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1197,10 +1197,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,14 +1316,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1367,10 +1367,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1434,14 +1434,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1450,14 +1450,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1492,14 +1492,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1543,10 +1543,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,14 +1662,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1713,10 +1713,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1728,14 +1728,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1799,14 +1799,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3092,28 +3092,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3971,15 +3971,33 @@
       <c r="J146" s="23"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
+      <c r="B147" s="4">
+        <v>45876</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
@@ -6942,6 +6960,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
     <mergeCell ref="G146:J146"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="G42:H42"/>
@@ -6958,70 +7040,6 @@
     <mergeCell ref="D89:F89"/>
     <mergeCell ref="D96:I96"/>
     <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949E61AB-541F-4463-B487-FD23209F0E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8CB233-39FB-4C2D-82A9-E5A71EED1C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -518,12 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,6 +535,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +859,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,14 +948,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -964,14 +964,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -980,14 +980,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -996,14 +996,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1047,10 +1047,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1062,14 +1062,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1156,14 +1156,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1172,14 +1172,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1197,10 +1197,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,14 +1316,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1367,10 +1367,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1434,14 +1434,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1450,14 +1450,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1492,14 +1492,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1543,10 +1543,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,14 +1662,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1713,10 +1713,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1728,14 +1728,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1799,14 +1799,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3092,28 +3092,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4000,15 +4000,33 @@
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="B148" s="4">
+        <v>45877</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="3"/>
@@ -6960,11 +6978,65 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="F125:J125"/>
@@ -6981,65 +7053,11 @@
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="G146:J146"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8CB233-39FB-4C2D-82A9-E5A71EED1C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53DBC00-9C47-48B4-BFED-C3007E1B5B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -518,6 +518,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,12 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +859,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,14 +948,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -964,14 +964,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -980,14 +980,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -996,14 +996,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1047,10 +1047,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1062,14 +1062,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1156,14 +1156,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1172,14 +1172,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1197,10 +1197,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,14 +1316,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1367,10 +1367,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1434,14 +1434,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1450,14 +1450,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1492,14 +1492,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1543,10 +1543,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,14 +1662,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1713,10 +1713,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1728,14 +1728,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1799,14 +1799,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3092,28 +3092,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4029,8 +4029,12 @@
       </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="B149" s="4">
+        <v>45878</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -4040,8 +4044,12 @@
       <c r="J149" s="1"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="B150" s="4">
+        <v>45879</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -6978,6 +6986,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
     <mergeCell ref="G146:J146"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="G42:H42"/>
@@ -6994,70 +7066,6 @@
     <mergeCell ref="D89:F89"/>
     <mergeCell ref="D96:I96"/>
     <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53DBC00-9C47-48B4-BFED-C3007E1B5B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26102575-A7F9-4361-98B8-F931F428D5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -447,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,12 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,6 +534,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +877,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,14 +966,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -964,14 +982,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -980,14 +998,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -996,14 +1014,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1047,10 +1065,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1062,14 +1080,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1156,14 +1174,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1172,14 +1190,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1197,10 +1215,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,14 +1334,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1367,10 +1385,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1434,14 +1452,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1450,14 +1468,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1492,14 +1510,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1543,10 +1561,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1662,14 +1680,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1713,10 +1731,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1728,14 +1746,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1799,14 +1817,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3092,28 +3110,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4035,13 +4053,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="D149" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4050,13 +4070,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="3"/>
@@ -6985,12 +7005,67 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
+  <mergeCells count="81">
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="F125:J125"/>
@@ -7007,65 +7082,11 @@
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="G146:J146"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26102575-A7F9-4361-98B8-F931F428D5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617EFCF-3C51-4185-9701-FCE2A6851100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -509,6 +509,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,6 +535,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,30 +558,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,7 +877,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+      <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,14 +1833,14 @@
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1884,10 +1884,10 @@
       <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="23"/>
+      <c r="H49" s="29"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2029,14 +2029,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2080,10 +2080,10 @@
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="23"/>
+      <c r="H57" s="29"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2147,14 +2147,14 @@
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2163,14 +2163,14 @@
       <c r="C61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="23"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2179,14 +2179,14 @@
       <c r="C62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="29"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2230,10 +2230,10 @@
       <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="23"/>
+      <c r="H64" s="29"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2271,13 +2271,13 @@
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="D66" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2289,18 +2289,18 @@
       <c r="C67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
+      <c r="D67" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="23"/>
+      <c r="H67" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="29"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2315,12 +2315,12 @@
       <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
+      <c r="F68" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="29"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2329,14 +2329,14 @@
       <c r="C69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="29"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2345,10 +2345,10 @@
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="23"/>
+      <c r="D70" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="29"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2378,10 +2378,10 @@
       <c r="F71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G71" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="23"/>
+      <c r="H71" s="29"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2419,14 +2419,14 @@
       <c r="C73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="23"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2435,11 +2435,11 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
+      <c r="D74" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2475,14 +2475,14 @@
       <c r="C76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2491,14 +2491,14 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="29"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2507,14 +2507,14 @@
       <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="23"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2558,10 +2558,10 @@
       <c r="F80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="23"/>
+      <c r="H80" s="29"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2582,10 +2582,10 @@
       <c r="F81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="23"/>
+      <c r="G81" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="29"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2649,14 +2649,14 @@
       <c r="C84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="29"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2694,11 +2694,11 @@
       <c r="D86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="29"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2713,18 +2713,18 @@
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="23"/>
+      <c r="D87" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="29"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
+      <c r="G87" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="28"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2733,14 +2733,14 @@
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="29"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2749,18 +2749,18 @@
       <c r="C89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="29"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="23"/>
+      <c r="H89" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2769,10 +2769,10 @@
       <c r="C90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="23"/>
+      <c r="D90" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="29"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2794,13 +2794,13 @@
       <c r="C91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="23"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="29"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2812,14 +2812,14 @@
       <c r="C92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2828,14 +2828,14 @@
       <c r="C93" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="23"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="29"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2844,14 +2844,14 @@
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
+      <c r="D94" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="29"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2860,15 +2860,15 @@
       <c r="C95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="21" t="s">
+      <c r="E95" s="28"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="23"/>
+      <c r="H95" s="29"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2880,14 +2880,14 @@
       <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="29"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2896,14 +2896,14 @@
       <c r="C97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
+      <c r="D97" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="29"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2912,14 +2912,14 @@
       <c r="C98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="29"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2928,12 +2928,12 @@
       <c r="C99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="23"/>
+      <c r="D99" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="29"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2957,21 +2957,21 @@
       <c r="F100" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G100" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
+      <c r="G100" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="28"/>
+      <c r="I100" s="29"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="29"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2990,10 +2990,10 @@
       <c r="C103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="D103" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="29"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -3006,10 +3006,10 @@
       <c r="C104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="29"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3022,10 +3022,10 @@
       <c r="C105" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="29"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3038,10 +3038,10 @@
       <c r="C106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="29"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3054,10 +3054,10 @@
       <c r="C107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D107" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="23"/>
+      <c r="E107" s="29"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3070,10 +3070,10 @@
       <c r="C108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="D108" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="23"/>
+      <c r="E108" s="29"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3110,28 +3110,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="34"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3262,13 +3262,13 @@
       <c r="E118" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="23"/>
+      <c r="F118" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="29"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3306,13 +3306,13 @@
       <c r="C120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="23"/>
+      <c r="D120" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="29"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3327,15 +3327,15 @@
       <c r="C121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="23"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="29"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3382,12 +3382,12 @@
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="23"/>
+      <c r="G123" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="29"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3405,12 +3405,12 @@
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="23"/>
+      <c r="G124" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="29"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3425,13 +3425,13 @@
       <c r="E125" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="23"/>
+      <c r="F125" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="29"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3449,11 +3449,11 @@
       <c r="F126" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G126" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="23"/>
+      <c r="G126" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="28"/>
+      <c r="I126" s="29"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
       </c>
@@ -3471,13 +3471,13 @@
       <c r="E127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="23"/>
+      <c r="F127" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="28"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="29"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
@@ -3486,15 +3486,15 @@
       <c r="C128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="23"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="29"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
@@ -3677,15 +3677,15 @@
       <c r="C135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="21" t="s">
+      <c r="D135" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="23"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="29"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
@@ -3897,15 +3897,15 @@
       <c r="C143" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
-      <c r="H143" s="22"/>
-      <c r="I143" s="22"/>
-      <c r="J143" s="23"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="29"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="4">
@@ -3981,12 +3981,12 @@
       <c r="F146" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G146" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
-      <c r="J146" s="23"/>
+      <c r="G146" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="28"/>
+      <c r="I146" s="28"/>
+      <c r="J146" s="29"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="4">
@@ -4053,15 +4053,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
+      <c r="J149" s="23"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4070,24 +4070,42 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="37"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="26"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
+      <c r="B151" s="4">
+        <v>45880</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B152" s="3"/>
@@ -7006,6 +7024,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
     <mergeCell ref="D149:J150"/>
     <mergeCell ref="G146:J146"/>
     <mergeCell ref="G64:H64"/>
@@ -7022,71 +7105,6 @@
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="D89:F89"/>
     <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617EFCF-3C51-4185-9701-FCE2A6851100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70A5AE-CA10-457C-A3F9-019021C5F2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>2 class ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1class p</t>
   </si>
 </sst>
 </file>
@@ -509,24 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,12 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,6 +537,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="J154" sqref="J154"/>
+      <selection activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,14 +1836,14 @@
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
@@ -1884,10 +1887,10 @@
       <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="29"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2029,14 +2032,14 @@
       <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
@@ -2080,10 +2083,10 @@
       <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="G57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="29"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="1" t="s">
         <v>36</v>
       </c>
@@ -2147,14 +2150,14 @@
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="29"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
@@ -2163,14 +2166,14 @@
       <c r="C61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
@@ -2179,14 +2182,14 @@
       <c r="C62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
@@ -2230,10 +2233,10 @@
       <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="29"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2271,13 +2274,13 @@
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
+      <c r="D66" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
       <c r="I66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2289,18 +2292,18 @@
       <c r="C67" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="29"/>
+      <c r="D67" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="29"/>
+      <c r="H67" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="23"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
@@ -2315,12 +2318,12 @@
       <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F68" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="29"/>
+      <c r="F68" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
@@ -2329,14 +2332,14 @@
       <c r="C69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="29"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
@@ -2345,10 +2348,10 @@
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="29"/>
+      <c r="D70" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="23"/>
       <c r="F70" s="3" t="s">
         <v>15</v>
       </c>
@@ -2378,10 +2381,10 @@
       <c r="F71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="27" t="s">
+      <c r="G71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="29"/>
+      <c r="H71" s="23"/>
       <c r="I71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2419,14 +2422,14 @@
       <c r="C73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
@@ -2435,11 +2438,11 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29"/>
+      <c r="D74" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="3" t="s">
         <v>16</v>
       </c>
@@ -2475,14 +2478,14 @@
       <c r="C76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
@@ -2491,14 +2494,14 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="29"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
@@ -2507,14 +2510,14 @@
       <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
     </row>
     <row r="79" spans="2:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
@@ -2558,10 +2561,10 @@
       <c r="F80" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="27" t="s">
+      <c r="G80" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="29"/>
+      <c r="H80" s="23"/>
       <c r="I80" s="1" t="s">
         <v>14</v>
       </c>
@@ -2582,10 +2585,10 @@
       <c r="F81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="29"/>
+      <c r="G81" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="23"/>
       <c r="I81" s="1" t="s">
         <v>16</v>
       </c>
@@ -2649,14 +2652,14 @@
       <c r="C84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="29"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
@@ -2694,11 +2697,11 @@
       <c r="D86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="E86" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="29"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2713,18 +2716,18 @@
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="29"/>
+      <c r="D87" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="23"/>
       <c r="F87" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="28"/>
-      <c r="I87" s="29"/>
+      <c r="G87" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
@@ -2733,14 +2736,14 @@
       <c r="C88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="29"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="23"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
@@ -2749,18 +2752,18 @@
       <c r="C89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E89" s="28"/>
-      <c r="F89" s="29"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="29"/>
+      <c r="H89" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="23"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
@@ -2769,10 +2772,10 @@
       <c r="C90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="29"/>
+      <c r="D90" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="23"/>
       <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
@@ -2794,13 +2797,13 @@
       <c r="C91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="29"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="18" t="s">
         <v>45</v>
       </c>
@@ -2812,14 +2815,14 @@
       <c r="C92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="29"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
@@ -2828,14 +2831,14 @@
       <c r="C93" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="27" t="s">
+      <c r="D93" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="29"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
@@ -2844,14 +2847,14 @@
       <c r="C94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="29"/>
+      <c r="D94" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
@@ -2860,15 +2863,15 @@
       <c r="C95" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="28"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="27" t="s">
+      <c r="E95" s="22"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H95" s="29"/>
+      <c r="H95" s="23"/>
       <c r="I95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2880,14 +2883,14 @@
       <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="29"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
@@ -2896,14 +2899,14 @@
       <c r="C97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="29"/>
+      <c r="D97" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
@@ -2912,14 +2915,14 @@
       <c r="C98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="29"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
@@ -2928,12 +2931,12 @@
       <c r="C99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="29"/>
+      <c r="D99" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2957,21 +2960,21 @@
       <c r="F100" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G100" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="28"/>
-      <c r="I100" s="29"/>
+      <c r="G100" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="27"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="29"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
@@ -2990,10 +2993,10 @@
       <c r="C103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="27" t="s">
+      <c r="D103" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E103" s="29"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -3006,10 +3009,10 @@
       <c r="C104" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="27" t="s">
+      <c r="D104" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="29"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3022,10 +3025,10 @@
       <c r="C105" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="27" t="s">
+      <c r="D105" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E105" s="29"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3038,10 +3041,10 @@
       <c r="C106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="27" t="s">
+      <c r="D106" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="29"/>
+      <c r="E106" s="23"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3054,10 +3057,10 @@
       <c r="C107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="29"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3070,10 +3073,10 @@
       <c r="C108" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D108" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="29"/>
+      <c r="E108" s="23"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3110,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="34"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="35"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="37"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -3262,13 +3265,13 @@
       <c r="E118" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F118" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="29"/>
+      <c r="F118" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="23"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="4">
@@ -3306,13 +3309,13 @@
       <c r="C120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="29"/>
+      <c r="D120" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="23"/>
       <c r="I120" s="1" t="s">
         <v>16</v>
       </c>
@@ -3327,15 +3330,15 @@
       <c r="C121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="27" t="s">
+      <c r="D121" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="29"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="23"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
@@ -3382,12 +3385,12 @@
       <c r="F123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="29"/>
+      <c r="G123" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="23"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
@@ -3405,12 +3408,12 @@
       <c r="F124" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="29"/>
+      <c r="G124" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="23"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
@@ -3425,13 +3428,13 @@
       <c r="E125" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F125" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="29"/>
+      <c r="F125" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="23"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="4">
@@ -3449,11 +3452,11 @@
       <c r="F126" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G126" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="28"/>
-      <c r="I126" s="29"/>
+      <c r="G126" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="22"/>
+      <c r="I126" s="23"/>
       <c r="J126" s="1" t="s">
         <v>16</v>
       </c>
@@ -3471,13 +3474,13 @@
       <c r="E127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="29"/>
+      <c r="F127" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="23"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
@@ -3486,15 +3489,15 @@
       <c r="C128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="27" t="s">
+      <c r="D128" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="29"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="23"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
@@ -3677,15 +3680,15 @@
       <c r="C135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="29"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="23"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="4">
@@ -3897,15 +3900,15 @@
       <c r="C143" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="27" t="s">
+      <c r="D143" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="29"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="22"/>
+      <c r="J143" s="23"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" s="4">
@@ -3981,12 +3984,12 @@
       <c r="F146" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G146" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="29"/>
+      <c r="G146" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="23"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B147" s="4">
@@ -4053,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="D149" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
-      <c r="J149" s="23"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4070,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="24"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-      <c r="J150" s="26"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4108,15 +4111,29 @@
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="B152" s="4">
+        <v>45881</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" s="22"/>
+      <c r="I152" s="23"/>
+      <c r="J152" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B153" s="3"/>
@@ -7023,12 +7040,68 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
+  <mergeCells count="82">
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="F125:J125"/>
@@ -7045,66 +7118,11 @@
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70A5AE-CA10-457C-A3F9-019021C5F2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18B390-5D1B-43EF-BEC5-B41233675394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,6 +521,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,30 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+      <selection activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="34"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="37"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4136,15 +4136,33 @@
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
+      <c r="B153" s="4">
+        <v>45882</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B154" s="3"/>
@@ -7041,6 +7059,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
     <mergeCell ref="G152:I152"/>
     <mergeCell ref="D149:J150"/>
     <mergeCell ref="G146:J146"/>
@@ -7057,72 +7141,6 @@
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18B390-5D1B-43EF-BEC5-B41233675394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3C2B80-7A8B-420B-ACD7-5871CB32B67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,6 +521,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,30 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="I155" sqref="I155"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="34"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="35"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="37"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="29"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4165,15 +4165,33 @@
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
+      <c r="B154" s="4">
+        <v>45883</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="3"/>
@@ -7059,11 +7077,67 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="F125:J125"/>
@@ -7080,67 +7154,11 @@
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3C2B80-7A8B-420B-ACD7-5871CB32B67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B0DEF5-CF73-401C-A431-1E9DF295F962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,6 +521,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,30 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="34"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="37"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4194,15 +4194,33 @@
       </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="B155" s="4">
+        <v>45884</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B156" s="3"/>
@@ -7077,6 +7095,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
     <mergeCell ref="G152:I152"/>
     <mergeCell ref="D149:J150"/>
     <mergeCell ref="G146:J146"/>
@@ -7093,72 +7177,6 @@
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B0DEF5-CF73-401C-A431-1E9DF295F962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E5C0C5-CD7B-4E1F-AB90-39BC21D86FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,6 +521,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,30 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+      <selection activeCell="D156" sqref="D156:J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="34"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="35"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="37"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="29"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4223,15 +4223,33 @@
       </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
+      <c r="B156" s="4">
+        <v>45885</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B157" s="3"/>
@@ -7095,11 +7113,67 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
     <mergeCell ref="F125:J125"/>
@@ -7116,67 +7190,11 @@
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
     <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E5C0C5-CD7B-4E1F-AB90-39BC21D86FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B779064-BC23-4AAA-9EFD-31D4BD725DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,6 +521,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,30 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156:J156"/>
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="34"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="37"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4252,15 +4252,21 @@
       </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
+      <c r="B157" s="4">
+        <v>45886</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="22"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="22"/>
+      <c r="J157" s="23"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
@@ -7112,7 +7118,74 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="83">
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
     <mergeCell ref="G152:I152"/>
     <mergeCell ref="D149:J150"/>
     <mergeCell ref="G146:J146"/>
@@ -7129,72 +7202,6 @@
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D106:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B779064-BC23-4AAA-9EFD-31D4BD725DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B502510-DB51-41D4-B52A-925FB600DE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,6 +521,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,30 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+      <selection activeCell="K157" sqref="K157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="32" t="s">
+      <c r="B112" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="34"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="35"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="37"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="29"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4269,15 +4269,33 @@
       <c r="J157" s="23"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
+      <c r="B158" s="4">
+        <v>45887</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B159" s="3"/>
@@ -7119,11 +7137,64 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="D157:J157"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
@@ -7140,68 +7211,15 @@
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
     <mergeCell ref="F118:J118"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
     <mergeCell ref="G152:I152"/>
     <mergeCell ref="D149:J150"/>
     <mergeCell ref="G146:J146"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B502510-DB51-41D4-B52A-925FB600DE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D441DDE-4041-4A3D-A133-CA9A9717F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,6 +521,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,12 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+      <selection activeCell="L158" sqref="L158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,14 +969,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -985,14 +985,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -1001,14 +1001,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1017,14 +1017,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1068,10 +1068,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="31"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1177,14 +1177,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1193,14 +1193,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1218,10 +1218,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1337,14 +1337,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1388,10 +1388,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,14 +1455,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1471,14 +1471,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1513,14 +1513,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1564,10 +1564,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1734,10 +1734,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,14 +1749,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1820,14 +1820,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="27"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4298,15 +4298,31 @@
       </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+      <c r="B159" s="4">
+        <v>45888</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
+      <c r="G159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B160" s="3"/>
@@ -7137,48 +7153,31 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="D78:I78"/>
@@ -7195,31 +7194,48 @@
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="D157:J157"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D441DDE-4041-4A3D-A133-CA9A9717F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB396C-1469-41CE-B2F9-FB79B0B196A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,11 +521,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,23 +557,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="L158" sqref="L158"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,14 +969,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -985,14 +985,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -1001,14 +1001,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1017,14 +1017,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1068,10 +1068,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1177,14 +1177,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1193,14 +1193,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1218,10 +1218,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1337,14 +1337,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1388,10 +1388,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,14 +1455,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1471,14 +1471,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1513,14 +1513,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1564,10 +1564,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1734,10 +1734,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,14 +1749,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1820,14 +1820,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="32"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="35"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="37"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4325,15 +4325,33 @@
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
+      <c r="B160" s="4">
+        <v>45889</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161" s="3"/>
@@ -7153,15 +7171,64 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="D157:J157"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
@@ -7178,64 +7245,15 @@
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB396C-1469-41CE-B2F9-FB79B0B196A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460EB8E8-191E-43B5-8362-13716B985FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,23 +521,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,11 +545,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,14 +969,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -985,14 +985,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -1001,14 +1001,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1017,14 +1017,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1068,10 +1068,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1177,14 +1177,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1193,14 +1193,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1218,10 +1218,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1337,14 +1337,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1388,10 +1388,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,14 +1455,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1471,14 +1471,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1513,14 +1513,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1564,10 +1564,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="36"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1734,10 +1734,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="36"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,14 +1749,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1820,14 +1820,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="32"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="33"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="35"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="29"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4354,15 +4354,33 @@
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
+      <c r="B161" s="4">
+        <v>45890</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="3"/>
@@ -7171,6 +7189,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
     <mergeCell ref="D98:I98"/>
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="H89:I89"/>
@@ -7187,73 +7272,6 @@
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="D88:I88"/>
     <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="D157:J157"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460EB8E8-191E-43B5-8362-13716B985FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3E03CF-87AF-420D-8AF0-7496103B864A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,11 +521,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,23 +557,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,14 +969,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -985,14 +985,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -1001,14 +1001,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1017,14 +1017,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1068,10 +1068,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1177,14 +1177,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1193,14 +1193,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1218,10 +1218,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1337,14 +1337,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1388,10 +1388,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,14 +1455,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1471,14 +1471,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1513,14 +1513,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1564,10 +1564,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1734,10 +1734,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,14 +1749,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1820,14 +1820,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="32"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="35"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="37"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4383,15 +4383,33 @@
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
+      <c r="B162" s="4">
+        <v>45891</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="3"/>
@@ -7189,15 +7207,64 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="D157:J157"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
@@ -7214,64 +7281,15 @@
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3E03CF-87AF-420D-8AF0-7496103B864A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A203FD-DBC1-4E55-B3D5-7A8F5913DCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -521,23 +521,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,11 +545,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="K162" sqref="K162"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,14 +969,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -985,14 +985,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -1001,14 +1001,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1017,14 +1017,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1068,10 +1068,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1177,14 +1177,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1193,14 +1193,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1218,10 +1218,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1337,14 +1337,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1388,10 +1388,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,14 +1455,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1471,14 +1471,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1513,14 +1513,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1564,10 +1564,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="36"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1734,10 +1734,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="36"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,14 +1749,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1820,14 +1820,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="32"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="33"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="35"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="29"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4412,7 +4412,9 @@
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B163" s="3"/>
+      <c r="B163" s="4">
+        <v>45892</v>
+      </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7207,6 +7209,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
     <mergeCell ref="D98:I98"/>
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="H89:I89"/>
@@ -7223,73 +7292,6 @@
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="D88:I88"/>
     <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="D157:J157"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A203FD-DBC1-4E55-B3D5-7A8F5913DCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B48781B-914D-45E3-9552-73C863AFE17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,11 +521,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,23 +557,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,14 +969,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -985,14 +985,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -1001,14 +1001,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1017,14 +1017,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1068,10 +1068,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1177,14 +1177,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1193,14 +1193,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1218,10 +1218,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1337,14 +1337,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1388,10 +1388,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,14 +1455,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1471,14 +1471,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1513,14 +1513,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1564,10 +1564,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1734,10 +1734,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,14 +1749,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1820,14 +1820,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="32"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="35"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="37"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4415,14 +4415,30 @@
       <c r="B163" s="4">
         <v>45892</v>
       </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
+      <c r="C163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="3"/>
@@ -7209,15 +7225,64 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="D157:J157"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
@@ -7234,64 +7299,15 @@
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B48781B-914D-45E3-9552-73C863AFE17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AF346B-F5CE-4A2A-BEE3-7145024ED4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,23 +521,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,11 +545,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +880,7 @@
   <dimension ref="B4:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="I164" sqref="I164"/>
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,14 +969,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -985,14 +985,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -1001,14 +1001,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1017,14 +1017,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1068,10 +1068,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="37"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1177,14 +1177,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1193,14 +1193,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1218,10 +1218,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1337,14 +1337,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1388,10 +1388,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,14 +1455,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1471,14 +1471,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1513,14 +1513,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1564,10 +1564,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="36"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1734,10 +1734,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="36"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,14 +1749,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1820,14 +1820,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="32"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="33"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="35"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="33"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="27"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="29"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="37"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4441,15 +4441,21 @@
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
+      <c r="B164" s="4">
+        <v>45893</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" s="22"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="22"/>
+      <c r="J164" s="23"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" s="3"/>
@@ -7224,7 +7230,75 @@
       <c r="J416" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="84">
+    <mergeCell ref="D164:J164"/>
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="D128:J128"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B112:J113"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="D121:J121"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
     <mergeCell ref="D98:I98"/>
     <mergeCell ref="D94:I94"/>
     <mergeCell ref="H89:I89"/>
@@ -7241,73 +7315,6 @@
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="D88:I88"/>
     <mergeCell ref="H67:I67"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="D128:J128"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B112:J113"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="D121:J121"/>
-    <mergeCell ref="D157:J157"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\3rd_Year_5th_Semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AF346B-F5CE-4A2A-BEE3-7145024ED4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5C3BD9-963D-46A6-B30D-D6C9A0801CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -521,11 +521,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,23 +557,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B4:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="H165" sqref="H165"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,14 +969,14 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
@@ -985,14 +985,14 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
@@ -1001,14 +1001,14 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
@@ -1017,14 +1017,14 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
@@ -1068,10 +1068,10 @@
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -1177,14 +1177,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
@@ -1193,14 +1193,14 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
@@ -1218,10 +1218,10 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="25"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1337,14 +1337,14 @@
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
@@ -1388,10 +1388,10 @@
       <c r="F27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="25"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,14 +1455,14 @@
       <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
@@ -1471,14 +1471,14 @@
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
@@ -1513,14 +1513,14 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
@@ -1564,10 +1564,10 @@
       <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,14 +1683,14 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
@@ -1734,10 +1734,10 @@
       <c r="F42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,14 +1749,14 @@
       <c r="C43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
@@ -1820,14 +1820,14 @@
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
@@ -3113,28 +3113,28 @@
       <c r="I111" s="20"/>
     </row>
     <row r="112" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="32"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="35"/>
     </row>
     <row r="114" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -4056,15 +4056,15 @@
       <c r="C149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="4">
@@ -4073,13 +4073,13 @@
       <c r="C150" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="37"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="4">
@@ -4458,15 +4458,33 @@
       <c r="J164" s="23"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
+      <c r="B165" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" s="3"/>
@@ -7231,16 +7249,64 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="D164:J164"/>
-    <mergeCell ref="D157:J157"/>
-    <mergeCell ref="D143:J143"/>
-    <mergeCell ref="D135:J135"/>
-    <mergeCell ref="F127:J127"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F118:J118"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="D149:J150"/>
-    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D94:I94"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D96:I96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D92:I92"/>
+    <mergeCell ref="D97:I97"/>
+    <mergeCell ref="D93:I93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D88:I88"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="G57:H57"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="G126:I126"/>
@@ -7257,64 +7323,16 @@
     <mergeCell ref="D120:H120"/>
     <mergeCell ref="G123:J123"/>
     <mergeCell ref="D121:J121"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D94:I94"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D96:I96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D92:I92"/>
-    <mergeCell ref="D97:I97"/>
-    <mergeCell ref="D93:I93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:H91"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D88:I88"/>
-    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F118:J118"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="D149:J150"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="D164:J164"/>
+    <mergeCell ref="D157:J157"/>
+    <mergeCell ref="D143:J143"/>
+    <mergeCell ref="D135:J135"/>
+    <mergeCell ref="F127:J127"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
